--- a/public/templates/mau-nhap-diem.xlsx
+++ b/public/templates/mau-nhap-diem.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU AN QUAN LY SINH VIEN VA KET QUA HOC TAP\Frontend\free-nextjs-admin-dashboard-main\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A03508-12FB-40EA-9C95-3A27D6AFAC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Họ và Tên</t>
   </si>
   <si>
-    <t>Giới Tính</t>
-  </si>
-  <si>
     <t>Điểm Quá Trình</t>
   </si>
   <si>
@@ -50,13 +48,13 @@
     <t>Hoàng Đức An</t>
   </si>
   <si>
-    <t>NAM</t>
+    <t>Ngày Sinh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,12 +113,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -401,11 +400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,16 +428,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -449,10 +448,10 @@
         <v>222001421</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>38272</v>
       </c>
       <c r="E2">
         <v>9</v>

--- a/public/templates/mau-nhap-diem.xlsx
+++ b/public/templates/mau-nhap-diem.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU AN QUAN LY SINH VIEN VA KET QUA HOC TAP\Frontend\free-nextjs-admin-dashboard-main\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A03508-12FB-40EA-9C95-3A27D6AFAC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,36 +24,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Mã Sinh Viên</t>
-  </si>
-  <si>
-    <t>Họ và Tên</t>
-  </si>
-  <si>
-    <t>Điểm Quá Trình</t>
-  </si>
-  <si>
-    <t>Điểm Thành Phần</t>
-  </si>
-  <si>
-    <t>Điểm Thi</t>
-  </si>
-  <si>
-    <t>Hoàng Đức An</t>
-  </si>
-  <si>
-    <t>Ngày Sinh</t>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>MSSV</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>ĐQT (10%)</t>
+  </si>
+  <si>
+    <t>ĐTP (30%)</t>
+  </si>
+  <si>
+    <t>ĐThi (60%)</t>
+  </si>
+  <si>
+    <t>30/11/1899</t>
+  </si>
+  <si>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>222001300</t>
+  </si>
+  <si>
+    <t>Lê Đức Phong</t>
+  </si>
+  <si>
+    <t>CNTT_K2021_A</t>
+  </si>
+  <si>
+    <t>222001301</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Phát</t>
+  </si>
+  <si>
+    <t>222001302</t>
+  </si>
+  <si>
+    <t>Trần Gia Hùng</t>
+  </si>
+  <si>
+    <t>10/6/2001</t>
+  </si>
+  <si>
+    <t>222001303</t>
+  </si>
+  <si>
+    <t>Lý Mai Anh Trâm</t>
+  </si>
+  <si>
+    <t>222001304</t>
+  </si>
+  <si>
+    <t>Lê Minh Phong</t>
+  </si>
+  <si>
+    <t>6/9/1999</t>
+  </si>
+  <si>
+    <t>222001305</t>
+  </si>
+  <si>
+    <t>Võ Văn Khang</t>
+  </si>
+  <si>
+    <t>222001306</t>
+  </si>
+  <si>
+    <t>Trần Thành Đạt</t>
+  </si>
+  <si>
+    <t>222001307</t>
+  </si>
+  <si>
+    <t>Nguyễn Diễm Ánh</t>
+  </si>
+  <si>
+    <t>3/2/2000</t>
+  </si>
+  <si>
+    <t>222001308</t>
+  </si>
+  <si>
+    <t>Trương Thùy Mai</t>
+  </si>
+  <si>
+    <t>12/8/2001</t>
+  </si>
+  <si>
+    <t>222001309</t>
+  </si>
+  <si>
+    <t>Nguyễn Uyên My</t>
+  </si>
+  <si>
+    <t>222001310</t>
+  </si>
+  <si>
+    <t>Lê Thu Hương Ánh</t>
+  </si>
+  <si>
+    <t>6/8/2000</t>
+  </si>
+  <si>
+    <t>222001311</t>
+  </si>
+  <si>
+    <t>Trần Đức Cường</t>
+  </si>
+  <si>
+    <t>8/2/1999</t>
+  </si>
+  <si>
+    <t>222001312</t>
+  </si>
+  <si>
+    <t>Lý Tuyết Chi</t>
+  </si>
+  <si>
+    <t>222001313</t>
+  </si>
+  <si>
+    <t>Nguyễn Linh Hương</t>
+  </si>
+  <si>
+    <t>3/2/2001</t>
+  </si>
+  <si>
+    <t>222001314</t>
+  </si>
+  <si>
+    <t>Đặng Nhi Chi</t>
+  </si>
+  <si>
+    <t>222001315</t>
+  </si>
+  <si>
+    <t>Đàm Công Quân</t>
+  </si>
+  <si>
+    <t>222001316</t>
+  </si>
+  <si>
+    <t>Đàm Thanh Trâm</t>
+  </si>
+  <si>
+    <t>222001317</t>
+  </si>
+  <si>
+    <t>Trần Đức Sơn</t>
+  </si>
+  <si>
+    <t>222001318</t>
+  </si>
+  <si>
+    <t>Huỳnh Phúc Quân</t>
+  </si>
+  <si>
+    <t>222001319</t>
+  </si>
+  <si>
+    <t>Nguyễn Khánh Thiện</t>
+  </si>
+  <si>
+    <t>222001320</t>
+  </si>
+  <si>
+    <t>Đặng Tuyết Nhi</t>
+  </si>
+  <si>
+    <t>222001321</t>
+  </si>
+  <si>
+    <t>Võ Duy Tuấn</t>
+  </si>
+  <si>
+    <t>6/4/2005</t>
+  </si>
+  <si>
+    <t>222001322</t>
+  </si>
+  <si>
+    <t>Võ Tuyết My</t>
+  </si>
+  <si>
+    <t>6/2/2005</t>
+  </si>
+  <si>
+    <t>222001323</t>
+  </si>
+  <si>
+    <t>Lê Yến Chi</t>
+  </si>
+  <si>
+    <t>222001324</t>
+  </si>
+  <si>
+    <t>Đàm Linh Trâm</t>
+  </si>
+  <si>
+    <t>10/12/2002</t>
+  </si>
+  <si>
+    <t>222001325</t>
+  </si>
+  <si>
+    <t>Trương Trúc Hằng</t>
+  </si>
+  <si>
+    <t>222001326</t>
+  </si>
+  <si>
+    <t>Đàm Diệu Linh Lan</t>
+  </si>
+  <si>
+    <t>4/4/1999</t>
+  </si>
+  <si>
+    <t>222001327</t>
+  </si>
+  <si>
+    <t>Lý Đình Vũ</t>
+  </si>
+  <si>
+    <t>222001328</t>
+  </si>
+  <si>
+    <t>Lê Vy Hằng</t>
+  </si>
+  <si>
+    <t>4/3/2000</t>
+  </si>
+  <si>
+    <t>222001329</t>
+  </si>
+  <si>
+    <t>Lý Trúc Nhi</t>
+  </si>
+  <si>
+    <t>222001330</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Mai</t>
+  </si>
+  <si>
+    <t>11/7/2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,13 +302,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +319,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,18 +342,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -400,11 +648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,52 +663,840 @@
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>222001421</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>38272</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
